--- a/biology/Médecine/Maladie_professionnelle_provoquée_par_le_ciment/Maladie_professionnelle_provoquée_par_le_ciment.xlsx
+++ b/biology/Médecine/Maladie_professionnelle_provoquée_par_le_ciment/Maladie_professionnelle_provoquée_par_le_ciment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_professionnelle_provoqu%C3%A9e_par_le_ciment</t>
+          <t>Maladie_professionnelle_provoquée_par_le_ciment</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une maladie provoquée par le ciment soit reconnue comme maladie professionnelle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladie_professionnelle_provoqu%C3%A9e_par_le_ciment</t>
+          <t>Maladie_professionnelle_provoquée_par_le_ciment</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,154 @@
           <t>Législation en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maladie_professionnelle_provoquée_par_le_ciment</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_professionnelle_provoqu%C3%A9e_par_le_ciment</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Régime général
-Régime agricole
-Données professionnelles
-Le ciment mélangé à l'eau provoque une réaction exothermique qui ajouté au ph alcalin de la chaux en fait un produit agressif pour la peau. Il s'y ajoute fréquemment une allergie au chrome dont le ciment contient des traces. Toutes les professions du bâtiment et plus particulièrement les maçons sont concernés.
-Données médicales
-Les symptômes les plus fréquemment rencontrés sont des dermites éczématiformes qui peuvent devenir invalidantes et contraindre la victime à quitter la profession. Parmi les dermatoses professionnelles, il s'agit de l'une des plus fréquentes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maladie_professionnelle_provoquée_par_le_ciment</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_professionnelle_provoqu%C3%A9e_par_le_ciment</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maladie_professionnelle_provoquée_par_le_ciment</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_professionnelle_provoqu%C3%A9e_par_le_ciment</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ciment mélangé à l'eau provoque une réaction exothermique qui ajouté au ph alcalin de la chaux en fait un produit agressif pour la peau. Il s'y ajoute fréquemment une allergie au chrome dont le ciment contient des traces. Toutes les professions du bâtiment et plus particulièrement les maçons sont concernés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Maladie_professionnelle_provoquée_par_le_ciment</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_professionnelle_provoqu%C3%A9e_par_le_ciment</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les symptômes les plus fréquemment rencontrés sont des dermites éczématiformes qui peuvent devenir invalidantes et contraindre la victime à quitter la profession. Parmi les dermatoses professionnelles, il s'agit de l'une des plus fréquentes.
 </t>
         </is>
       </c>
